--- a/Excel/Validasi/Hasil_Pengujian_Map_2_128_avg_length.xlsx
+++ b/Excel/Validasi/Hasil_Pengujian_Map_2_128_avg_length.xlsx
@@ -626,19 +626,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.0003903</v>
+        <v>0.0003865</v>
       </c>
       <c r="D2">
-        <v>0.0026083</v>
+        <v>0.0025612</v>
       </c>
       <c r="E2">
-        <v>0.0173048</v>
+        <v>0.0169623</v>
       </c>
       <c r="F2">
-        <v>0.1105916</v>
+        <v>0.110197</v>
       </c>
       <c r="G2">
-        <v>0.03272375</v>
+        <v>0.03252674999999999</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -649,19 +649,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.0002353</v>
+        <v>0.0002352</v>
       </c>
       <c r="D3">
-        <v>0.0010183</v>
+        <v>0.0010061</v>
       </c>
       <c r="E3">
-        <v>0.0044916</v>
+        <v>0.004333999999999999</v>
       </c>
       <c r="F3">
-        <v>0.0182643</v>
+        <v>0.0178582</v>
       </c>
       <c r="G3">
-        <v>0.006002375</v>
+        <v>0.005858374999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -672,19 +672,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.000474</v>
+        <v>0.0004279</v>
       </c>
       <c r="D4">
-        <v>0.0031067</v>
+        <v>0.0015832</v>
       </c>
       <c r="E4">
-        <v>0.008899499999999999</v>
+        <v>0.008766900000000001</v>
       </c>
       <c r="F4">
-        <v>0.0674545</v>
+        <v>0.0665999</v>
       </c>
       <c r="G4">
-        <v>0.019983675</v>
+        <v>0.019344475</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -695,19 +695,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.0003329</v>
+        <v>0.0003262</v>
       </c>
       <c r="D5">
-        <v>0.0020203</v>
+        <v>0.0020154</v>
       </c>
       <c r="E5">
-        <v>0.0139171</v>
+        <v>0.0136829</v>
       </c>
       <c r="F5">
-        <v>0.0896908</v>
+        <v>0.0890392</v>
       </c>
       <c r="G5">
-        <v>0.026490275</v>
+        <v>0.026265925</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -718,19 +718,19 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.0004436</v>
+        <v>0.0004274</v>
       </c>
       <c r="D6">
-        <v>0.0013608</v>
+        <v>0.0013472</v>
       </c>
       <c r="E6">
-        <v>0.0049751</v>
+        <v>0.0050197</v>
       </c>
       <c r="F6">
-        <v>0.0219872</v>
+        <v>0.0215891</v>
       </c>
       <c r="G6">
-        <v>0.007191675000000001</v>
+        <v>0.00709585</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -741,19 +741,19 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>0.0004839999999999999</v>
+        <v>0.0004503</v>
       </c>
       <c r="D7">
-        <v>0.0026815</v>
+        <v>0.0026337</v>
       </c>
       <c r="E7">
-        <v>0.0174109</v>
+        <v>0.0170541</v>
       </c>
       <c r="F7">
-        <v>0.1113666</v>
+        <v>0.1104907</v>
       </c>
       <c r="G7">
-        <v>0.03298574999999999</v>
+        <v>0.0326572</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -764,19 +764,19 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.0004208</v>
+        <v>0.0004223</v>
       </c>
       <c r="D8">
-        <v>0.0024682</v>
+        <v>0.0024175</v>
       </c>
       <c r="E8">
-        <v>0.0159832</v>
+        <v>0.0148261</v>
       </c>
       <c r="F8">
-        <v>0.09962750000000001</v>
+        <v>0.09920850000000001</v>
       </c>
       <c r="G8">
-        <v>0.029624925</v>
+        <v>0.0292186</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -787,19 +787,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.0003249</v>
+        <v>0.0003112999999999999</v>
       </c>
       <c r="D9">
-        <v>0.0012568</v>
+        <v>0.0011968</v>
       </c>
       <c r="E9">
-        <v>0.0050081</v>
+        <v>0.0046809</v>
       </c>
       <c r="F9">
-        <v>0.0220218</v>
+        <v>0.02167460000000001</v>
       </c>
       <c r="G9">
-        <v>0.0071529</v>
+        <v>0.006965900000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -810,19 +810,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>0.0002083</v>
+        <v>0.0002051</v>
       </c>
       <c r="D10">
-        <v>0.0008548999999999999</v>
+        <v>0.0008747</v>
       </c>
       <c r="E10">
-        <v>0.0041446</v>
+        <v>0.0040442</v>
       </c>
       <c r="F10">
-        <v>0.0177304</v>
+        <v>0.0174603</v>
       </c>
       <c r="G10">
-        <v>0.00573455</v>
+        <v>0.005646075</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -833,19 +833,19 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.0002901</v>
+        <v>0.0002812</v>
       </c>
       <c r="D11">
-        <v>0.0011214</v>
+        <v>0.0011001</v>
       </c>
       <c r="E11">
-        <v>0.0047533</v>
+        <v>0.004535200000000001</v>
       </c>
       <c r="F11">
-        <v>0.0188674</v>
+        <v>0.0185876</v>
       </c>
       <c r="G11">
-        <v>0.00625805</v>
+        <v>0.006126025</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -856,19 +856,19 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>0.0002527</v>
+        <v>0.0002506</v>
       </c>
       <c r="D12">
-        <v>0.0010529</v>
+        <v>0.0010769</v>
       </c>
       <c r="E12">
-        <v>0.0045331</v>
+        <v>0.0043631</v>
       </c>
       <c r="F12">
-        <v>0.0187087</v>
+        <v>0.0183709</v>
       </c>
       <c r="G12">
-        <v>0.006136850000000001</v>
+        <v>0.006015375000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -879,19 +879,19 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.0005145999999999999</v>
+        <v>0.0005059</v>
       </c>
       <c r="D13">
-        <v>0.0017907</v>
+        <v>0.0017123</v>
       </c>
       <c r="E13">
-        <v>0.0091615</v>
+        <v>0.0089468</v>
       </c>
       <c r="F13">
-        <v>0.0676683</v>
+        <v>0.06733910000000001</v>
       </c>
       <c r="G13">
-        <v>0.019783775</v>
+        <v>0.019626025</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -902,19 +902,19 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>0.0004607</v>
+        <v>0.0004391</v>
       </c>
       <c r="D14">
-        <v>0.0023936</v>
+        <v>0.0023418</v>
       </c>
       <c r="E14">
-        <v>0.0102833</v>
+        <v>0.0101272</v>
       </c>
       <c r="F14">
-        <v>0.09585869999999999</v>
+        <v>0.09568159999999999</v>
       </c>
       <c r="G14">
-        <v>0.027249075</v>
+        <v>0.027147425</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -925,19 +925,19 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>0.0005166999999999999</v>
+        <v>0.000515</v>
       </c>
       <c r="D15">
-        <v>0.0018667</v>
+        <v>0.0018718</v>
       </c>
       <c r="E15">
-        <v>0.0109749</v>
+        <v>0.0105198</v>
       </c>
       <c r="F15">
-        <v>0.06828699999999999</v>
+        <v>0.06781509999999999</v>
       </c>
       <c r="G15">
-        <v>0.020411325</v>
+        <v>0.020180425</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -948,19 +948,19 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>0.0003958</v>
+        <v>0.0003872</v>
       </c>
       <c r="D16">
-        <v>0.0021111</v>
+        <v>0.0021209</v>
       </c>
       <c r="E16">
-        <v>0.0143524</v>
+        <v>0.0138365</v>
       </c>
       <c r="F16">
-        <v>0.09087430000000001</v>
+        <v>0.09007970000000001</v>
       </c>
       <c r="G16">
-        <v>0.0269334</v>
+        <v>0.026606075</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -971,19 +971,19 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.000381</v>
+        <v>0.0003732</v>
       </c>
       <c r="D17">
-        <v>0.0021892</v>
+        <v>0.0022373</v>
       </c>
       <c r="E17">
-        <v>0.013802</v>
+        <v>0.0135952</v>
       </c>
       <c r="F17">
-        <v>0.0848867</v>
+        <v>0.08449390000000001</v>
       </c>
       <c r="G17">
-        <v>0.025314725</v>
+        <v>0.0251749</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -994,19 +994,19 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>0.0002935</v>
+        <v>0.0002903</v>
       </c>
       <c r="D18">
-        <v>0.0009724999999999999</v>
+        <v>0.0009649000000000001</v>
       </c>
       <c r="E18">
-        <v>0.004159000000000001</v>
+        <v>0.0041219</v>
       </c>
       <c r="F18">
-        <v>0.01662309999999999</v>
+        <v>0.0160094</v>
       </c>
       <c r="G18">
-        <v>0.005512024999999999</v>
+        <v>0.005346625</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1017,19 +1017,19 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>0.0003806</v>
+        <v>0.0003562</v>
       </c>
       <c r="D19">
-        <v>0.000704</v>
+        <v>0.0006833000000000001</v>
       </c>
       <c r="E19">
-        <v>0.0019537</v>
+        <v>0.0019604</v>
       </c>
       <c r="F19">
-        <v>0.008021400000000001</v>
+        <v>0.007794000000000001</v>
       </c>
       <c r="G19">
-        <v>0.002764925000000001</v>
+        <v>0.002698475</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1040,19 +1040,19 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>0.0003871</v>
+        <v>0.0003747</v>
       </c>
       <c r="D20">
-        <v>0.0012409</v>
+        <v>0.0012193</v>
       </c>
       <c r="E20">
-        <v>0.004017499999999999</v>
+        <v>0.0040626</v>
       </c>
       <c r="F20">
-        <v>0.0149075</v>
+        <v>0.0146006</v>
       </c>
       <c r="G20">
-        <v>0.00513825</v>
+        <v>0.0050643</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1063,19 +1063,19 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>0.000473</v>
+        <v>0.0004781</v>
       </c>
       <c r="D21">
-        <v>0.0014271</v>
+        <v>0.0014165</v>
       </c>
       <c r="E21">
-        <v>0.0051097</v>
+        <v>0.0050514</v>
       </c>
       <c r="F21">
-        <v>0.0219628</v>
+        <v>0.0216055</v>
       </c>
       <c r="G21">
-        <v>0.007243149999999999</v>
+        <v>0.007137875</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1086,19 +1086,19 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>0.0004433999999999999</v>
+        <v>0.0004663000000000001</v>
       </c>
       <c r="D22">
-        <v>0.0013611</v>
+        <v>0.0013659</v>
       </c>
       <c r="E22">
-        <v>0.004805800000000001</v>
+        <v>0.004760499999999999</v>
       </c>
       <c r="F22">
-        <v>0.0209508</v>
+        <v>0.0204785</v>
       </c>
       <c r="G22">
-        <v>0.006890275</v>
+        <v>0.006767799999999999</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1109,19 +1109,19 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>0.00047</v>
+        <v>0.0004693</v>
       </c>
       <c r="D23">
-        <v>0.0025362</v>
+        <v>0.002568</v>
       </c>
       <c r="E23">
-        <v>0.0154222</v>
+        <v>0.0153584</v>
       </c>
       <c r="F23">
-        <v>0.1007869</v>
+        <v>0.0998144</v>
       </c>
       <c r="G23">
-        <v>0.029803825</v>
+        <v>0.029552525</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1132,19 +1132,19 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>0.0003688</v>
+        <v>0.000357</v>
       </c>
       <c r="D24">
-        <v>0.00133</v>
+        <v>0.0013277</v>
       </c>
       <c r="E24">
-        <v>0.0056922</v>
+        <v>0.004921699999999999</v>
       </c>
       <c r="F24">
-        <v>0.0224291</v>
+        <v>0.0221448</v>
       </c>
       <c r="G24">
-        <v>0.007455025000000001</v>
+        <v>0.007187799999999999</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1155,19 +1155,19 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>0.0003981</v>
+        <v>0.0003804</v>
       </c>
       <c r="D25">
-        <v>0.0014692</v>
+        <v>0.0014211</v>
       </c>
       <c r="E25">
-        <v>0.006627800000000001</v>
+        <v>0.005647399999999999</v>
       </c>
       <c r="F25">
-        <v>0.0289032</v>
+        <v>0.0284379</v>
       </c>
       <c r="G25">
-        <v>0.009349574999999999</v>
+        <v>0.008971699999999999</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1178,19 +1178,19 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>0.000357</v>
+        <v>0.0003497</v>
       </c>
       <c r="D26">
-        <v>0.0013921</v>
+        <v>0.0014182</v>
       </c>
       <c r="E26">
-        <v>0.0070478</v>
+        <v>0.006864600000000001</v>
       </c>
       <c r="F26">
-        <v>0.0386094</v>
+        <v>0.0380562</v>
       </c>
       <c r="G26">
-        <v>0.011851575</v>
+        <v>0.011672175</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1201,19 +1201,19 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>0.0002587</v>
+        <v>0.0002511</v>
       </c>
       <c r="D27">
-        <v>0.0009860000000000001</v>
+        <v>0.0009774000000000002</v>
       </c>
       <c r="E27">
-        <v>0.004236999999999999</v>
+        <v>0.0042303</v>
       </c>
       <c r="F27">
-        <v>0.018554</v>
+        <v>0.0181839</v>
       </c>
       <c r="G27">
-        <v>0.006008925</v>
+        <v>0.005910675000000001</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1224,19 +1224,19 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>0.0002734</v>
+        <v>0.0002686</v>
       </c>
       <c r="D28">
-        <v>0.0009825999999999999</v>
+        <v>0.0009577</v>
       </c>
       <c r="E28">
-        <v>0.004227300000000001</v>
+        <v>0.004128</v>
       </c>
       <c r="F28">
-        <v>0.0181092</v>
+        <v>0.0177172</v>
       </c>
       <c r="G28">
-        <v>0.005898125</v>
+        <v>0.005767874999999999</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1247,19 +1247,19 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>0.0003117</v>
+        <v>0.0003063</v>
       </c>
       <c r="D29">
-        <v>0.0011714</v>
+        <v>0.001172</v>
       </c>
       <c r="E29">
-        <v>0.0046819</v>
+        <v>0.0045479</v>
       </c>
       <c r="F29">
-        <v>0.0196399</v>
+        <v>0.019021</v>
       </c>
       <c r="G29">
-        <v>0.006451225</v>
+        <v>0.006261799999999999</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1270,19 +1270,19 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>0.0005097</v>
+        <v>0.0004891</v>
       </c>
       <c r="D30">
-        <v>0.002475</v>
+        <v>0.0023507</v>
       </c>
       <c r="E30">
-        <v>0.0106038</v>
+        <v>0.010331</v>
       </c>
       <c r="F30">
-        <v>0.09749140000000001</v>
+        <v>0.0964098</v>
       </c>
       <c r="G30">
-        <v>0.027769975</v>
+        <v>0.02739515</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1293,19 +1293,19 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>0.0005712</v>
+        <v>0.0005433</v>
       </c>
       <c r="D31">
-        <v>0.0020108</v>
+        <v>0.0019174</v>
       </c>
       <c r="E31">
-        <v>0.01132</v>
+        <v>0.0107913</v>
       </c>
       <c r="F31">
-        <v>0.0687426</v>
+        <v>0.06810590000000001</v>
       </c>
       <c r="G31">
-        <v>0.02066115</v>
+        <v>0.020339475</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1316,19 +1316,19 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>0.0004979000000000001</v>
+        <v>0.0004685000000000001</v>
       </c>
       <c r="D32">
-        <v>0.0019823</v>
+        <v>0.0019461</v>
       </c>
       <c r="E32">
-        <v>0.0112277</v>
+        <v>0.0106905</v>
       </c>
       <c r="F32">
-        <v>0.06918519999999999</v>
+        <v>0.06839629999999999</v>
       </c>
       <c r="G32">
-        <v>0.020723275</v>
+        <v>0.02037535</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1339,19 +1339,19 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>0.0004212</v>
+        <v>0.0004171</v>
       </c>
       <c r="D33">
-        <v>0.0022287</v>
+        <v>0.0022172</v>
       </c>
       <c r="E33">
-        <v>0.0141375</v>
+        <v>0.013691</v>
       </c>
       <c r="F33">
-        <v>0.08566170000000001</v>
+        <v>0.0848579</v>
       </c>
       <c r="G33">
-        <v>0.025612275</v>
+        <v>0.0252958</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1362,19 +1362,19 @@
         <v>39</v>
       </c>
       <c r="C34">
-        <v>0.0003456</v>
+        <v>0.0003085</v>
       </c>
       <c r="D34">
-        <v>0.0009530999999999998</v>
+        <v>0.0007581</v>
       </c>
       <c r="E34">
-        <v>0.0024522</v>
+        <v>0.0023665</v>
       </c>
       <c r="F34">
-        <v>0.009871099999999999</v>
+        <v>0.009682400000000001</v>
       </c>
       <c r="G34">
-        <v>0.0034055</v>
+        <v>0.003278875</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1385,19 +1385,19 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>0.0002561</v>
+        <v>0.0002498</v>
       </c>
       <c r="D35">
-        <v>0.0009354</v>
+        <v>0.0009082</v>
       </c>
       <c r="E35">
-        <v>0.0028123</v>
+        <v>0.0027965</v>
       </c>
       <c r="F35">
-        <v>0.0108959</v>
+        <v>0.010708</v>
       </c>
       <c r="G35">
-        <v>0.003724925</v>
+        <v>0.003665625</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1408,19 +1408,19 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>0.0003515</v>
+        <v>0.0003365</v>
       </c>
       <c r="D36">
-        <v>0.0010732</v>
+        <v>0.0010177</v>
       </c>
       <c r="E36">
-        <v>0.0042625</v>
+        <v>0.004231</v>
       </c>
       <c r="F36">
-        <v>0.0167642</v>
+        <v>0.0161585</v>
       </c>
       <c r="G36">
-        <v>0.00561285</v>
+        <v>0.005435924999999999</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1431,19 +1431,19 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>0.0003327</v>
+        <v>0.0003236</v>
       </c>
       <c r="D37">
-        <v>0.0009916</v>
+        <v>0.0008583999999999999</v>
       </c>
       <c r="E37">
-        <v>0.0033745</v>
+        <v>0.0033271</v>
       </c>
       <c r="F37">
-        <v>0.0140714</v>
+        <v>0.0138598</v>
       </c>
       <c r="G37">
-        <v>0.00469255</v>
+        <v>0.004592225</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1454,19 +1454,19 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>0.0004015999999999999</v>
+        <v>0.0003852</v>
       </c>
       <c r="D38">
-        <v>0.0007886000000000001</v>
+        <v>0.0007454</v>
       </c>
       <c r="E38">
-        <v>0.0020267</v>
+        <v>0.0020654</v>
       </c>
       <c r="F38">
-        <v>0.008179599999999999</v>
+        <v>0.007921800000000001</v>
       </c>
       <c r="G38">
-        <v>0.002849125</v>
+        <v>0.00277945</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1477,19 +1477,19 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>0.0003708</v>
+        <v>0.000343</v>
       </c>
       <c r="D39">
-        <v>0.0007115999999999999</v>
+        <v>0.0006773</v>
       </c>
       <c r="E39">
-        <v>0.001963</v>
+        <v>0.0020196</v>
       </c>
       <c r="F39">
-        <v>0.008028400000000002</v>
+        <v>0.0077637</v>
       </c>
       <c r="G39">
-        <v>0.00276845</v>
+        <v>0.0027009</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1500,19 +1500,19 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>0.0003627</v>
+        <v>0.0003698</v>
       </c>
       <c r="D40">
-        <v>0.0009840999999999999</v>
+        <v>0.0009492999999999999</v>
       </c>
       <c r="E40">
-        <v>0.0026914</v>
+        <v>0.0026348</v>
       </c>
       <c r="F40">
-        <v>0.0106069</v>
+        <v>0.0104215</v>
       </c>
       <c r="G40">
-        <v>0.003661275</v>
+        <v>0.00359385</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1523,19 +1523,19 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>0.0004267</v>
+        <v>0.0004327</v>
       </c>
       <c r="D41">
-        <v>0.0013078</v>
+        <v>0.0013071</v>
       </c>
       <c r="E41">
-        <v>0.004070499999999999</v>
+        <v>0.004128000000000001</v>
       </c>
       <c r="F41">
-        <v>0.0151991</v>
+        <v>0.014741</v>
       </c>
       <c r="G41">
-        <v>0.005251024999999999</v>
+        <v>0.0051522</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1546,19 +1546,19 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>0.0004142999999999999</v>
+        <v>0.0003994</v>
       </c>
       <c r="D42">
-        <v>0.0012818</v>
+        <v>0.0012647</v>
       </c>
       <c r="E42">
-        <v>0.0040106</v>
+        <v>0.004000200000000001</v>
       </c>
       <c r="F42">
-        <v>0.0152873</v>
+        <v>0.0150702</v>
       </c>
       <c r="G42">
-        <v>0.0052485</v>
+        <v>0.005183625000000001</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1569,19 +1569,19 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>0.0005014</v>
+        <v>0.0005004</v>
       </c>
       <c r="D43">
-        <v>0.0014411</v>
+        <v>0.0014257</v>
       </c>
       <c r="E43">
-        <v>0.004916800000000001</v>
+        <v>0.0048312</v>
       </c>
       <c r="F43">
-        <v>0.0210712</v>
+        <v>0.0205914</v>
       </c>
       <c r="G43">
-        <v>0.006982625000000001</v>
+        <v>0.006837175</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1592,19 +1592,19 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>0.0004321</v>
+        <v>0.0004187</v>
       </c>
       <c r="D44">
-        <v>0.0015962</v>
+        <v>0.0015562</v>
       </c>
       <c r="E44">
-        <v>0.006174199999999999</v>
+        <v>0.0058873</v>
       </c>
       <c r="F44">
-        <v>0.02973669999999999</v>
+        <v>0.029292</v>
       </c>
       <c r="G44">
-        <v>0.009484799999999998</v>
+        <v>0.00928855</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1615,19 +1615,19 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>0.0004034999999999999</v>
+        <v>0.0004037</v>
       </c>
       <c r="D45">
-        <v>0.0015354</v>
+        <v>0.0015082</v>
       </c>
       <c r="E45">
-        <v>0.007284799999999999</v>
+        <v>0.0070943</v>
       </c>
       <c r="F45">
-        <v>0.0390822</v>
+        <v>0.0387302</v>
       </c>
       <c r="G45">
-        <v>0.012076475</v>
+        <v>0.0119341</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1638,19 +1638,19 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>0.0003578</v>
+        <v>0.000398</v>
       </c>
       <c r="D46">
-        <v>0.001537</v>
+        <v>0.001491</v>
       </c>
       <c r="E46">
-        <v>0.007169999999999998</v>
+        <v>0.0067892</v>
       </c>
       <c r="F46">
-        <v>0.0360336</v>
+        <v>0.035798</v>
       </c>
       <c r="G46">
-        <v>0.0112746</v>
+        <v>0.01111905</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1661,19 +1661,19 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>0.0003004</v>
+        <v>0.0003128</v>
       </c>
       <c r="D47">
-        <v>0.0010539</v>
+        <v>0.0010612</v>
       </c>
       <c r="E47">
-        <v>0.0043641</v>
+        <v>0.004392699999999999</v>
       </c>
       <c r="F47">
-        <v>0.0189322</v>
+        <v>0.0184484</v>
       </c>
       <c r="G47">
-        <v>0.00616265</v>
+        <v>0.006053774999999999</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1684,19 +1684,19 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>0.0005487000000000001</v>
+        <v>0.0005257</v>
       </c>
       <c r="D48">
-        <v>0.0021013</v>
+        <v>0.002034</v>
       </c>
       <c r="E48">
-        <v>0.0113973</v>
+        <v>0.0113156</v>
       </c>
       <c r="F48">
-        <v>0.07041620000000001</v>
+        <v>0.06909230000000001</v>
       </c>
       <c r="G48">
-        <v>0.021115875</v>
+        <v>0.0207419</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1707,19 +1707,19 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>0.0003649</v>
+        <v>0.0003535</v>
       </c>
       <c r="D49">
-        <v>0.0009518</v>
+        <v>0.0008357</v>
       </c>
       <c r="E49">
-        <v>0.0025013</v>
+        <v>0.0024978</v>
       </c>
       <c r="F49">
-        <v>0.0101773</v>
+        <v>0.0098365</v>
       </c>
       <c r="G49">
-        <v>0.003498825</v>
+        <v>0.003380875</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1730,19 +1730,19 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>0.0003638</v>
+        <v>0.0003485</v>
       </c>
       <c r="D50">
-        <v>0.0011454</v>
+        <v>0.0009824</v>
       </c>
       <c r="E50">
-        <v>0.0034627</v>
+        <v>0.003401</v>
       </c>
       <c r="F50">
-        <v>0.0118196</v>
+        <v>0.0116383</v>
       </c>
       <c r="G50">
-        <v>0.004197875</v>
+        <v>0.004092549999999999</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1753,19 +1753,19 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>0.0003502</v>
+        <v>0.0003246</v>
       </c>
       <c r="D51">
-        <v>0.0010942</v>
+        <v>0.0010714</v>
       </c>
       <c r="E51">
-        <v>0.0031354</v>
+        <v>0.0030594</v>
       </c>
       <c r="F51">
-        <v>0.0118444</v>
+        <v>0.0115334</v>
       </c>
       <c r="G51">
-        <v>0.00410605</v>
+        <v>0.003997199999999999</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1776,19 +1776,19 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>0.0003027999999999999</v>
+        <v>0.0002936</v>
       </c>
       <c r="D52">
-        <v>0.0009731</v>
+        <v>0.0009465000000000001</v>
       </c>
       <c r="E52">
-        <v>0.0029938</v>
+        <v>0.002878</v>
       </c>
       <c r="F52">
-        <v>0.0110945</v>
+        <v>0.0108367</v>
       </c>
       <c r="G52">
-        <v>0.00384105</v>
+        <v>0.0037387</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1799,19 +1799,19 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>0.0003105</v>
+        <v>0.0003143</v>
       </c>
       <c r="D53">
-        <v>0.0009058</v>
+        <v>0.0009337000000000002</v>
       </c>
       <c r="E53">
-        <v>0.0035093</v>
+        <v>0.003489</v>
       </c>
       <c r="F53">
-        <v>0.0177037</v>
+        <v>0.0174405</v>
       </c>
       <c r="G53">
-        <v>0.005607325</v>
+        <v>0.005544375000000001</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1822,19 +1822,19 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>0.0003972000000000001</v>
+        <v>0.0003728000000000001</v>
       </c>
       <c r="D54">
-        <v>0.0011994</v>
+        <v>0.0009551000000000001</v>
       </c>
       <c r="E54">
-        <v>0.0034883</v>
+        <v>0.0034294</v>
       </c>
       <c r="F54">
-        <v>0.0142605</v>
+        <v>0.0140676</v>
       </c>
       <c r="G54">
-        <v>0.00483635</v>
+        <v>0.004706225</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1845,19 +1845,19 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>0.0004097</v>
+        <v>0.0003995</v>
       </c>
       <c r="D55">
-        <v>0.000787</v>
+        <v>0.0007915999999999999</v>
       </c>
       <c r="E55">
-        <v>0.0020653</v>
+        <v>0.0021414</v>
       </c>
       <c r="F55">
-        <v>0.008100500000000002</v>
+        <v>0.007889000000000002</v>
       </c>
       <c r="G55">
-        <v>0.002840625</v>
+        <v>0.002805375000000001</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1868,19 +1868,19 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>0.000406</v>
+        <v>0.0003953999999999999</v>
       </c>
       <c r="D56">
-        <v>0.0010315</v>
+        <v>0.0009863000000000001</v>
       </c>
       <c r="E56">
-        <v>0.0027331</v>
+        <v>0.0027351</v>
       </c>
       <c r="F56">
-        <v>0.0108203</v>
+        <v>0.0106295</v>
       </c>
       <c r="G56">
-        <v>0.003747725</v>
+        <v>0.003686575</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1891,19 +1891,19 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>0.0003836</v>
+        <v>0.000361</v>
       </c>
       <c r="D57">
-        <v>0.0009708</v>
+        <v>0.0009362999999999999</v>
       </c>
       <c r="E57">
-        <v>0.0027094</v>
+        <v>0.0027069</v>
       </c>
       <c r="F57">
-        <v>0.0106662</v>
+        <v>0.0104853</v>
       </c>
       <c r="G57">
-        <v>0.003682499999999999</v>
+        <v>0.003622375</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1914,19 +1914,19 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>0.0004477999999999999</v>
+        <v>0.0004349000000000001</v>
       </c>
       <c r="D58">
-        <v>0.0013321</v>
+        <v>0.0013145</v>
       </c>
       <c r="E58">
-        <v>0.0041047</v>
+        <v>0.0040983</v>
       </c>
       <c r="F58">
-        <v>0.01554</v>
+        <v>0.0151961</v>
       </c>
       <c r="G58">
-        <v>0.00535615</v>
+        <v>0.005260949999999999</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1937,19 +1937,19 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>0.0004235</v>
+        <v>0.0004196</v>
       </c>
       <c r="D59">
-        <v>0.001659</v>
+        <v>0.0016225</v>
       </c>
       <c r="E59">
-        <v>0.007283099999999999</v>
+        <v>0.0071785</v>
       </c>
       <c r="F59">
-        <v>0.0376944</v>
+        <v>0.0362147</v>
       </c>
       <c r="G59">
-        <v>0.011765</v>
+        <v>0.011358825</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1960,19 +1960,19 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>0.0004204</v>
+        <v>0.0003943999999999999</v>
       </c>
       <c r="D60">
-        <v>0.0013328</v>
+        <v>0.0010487</v>
       </c>
       <c r="E60">
-        <v>0.003518599999999999</v>
+        <v>0.0035047</v>
       </c>
       <c r="F60">
-        <v>0.0119356</v>
+        <v>0.0117286</v>
       </c>
       <c r="G60">
-        <v>0.00430185</v>
+        <v>0.0041691</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1983,19 +1983,19 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>0.0003765</v>
+        <v>0.0003826</v>
       </c>
       <c r="D61">
-        <v>0.0011737</v>
+        <v>0.0012117</v>
       </c>
       <c r="E61">
-        <v>0.003233999999999999</v>
+        <v>0.0031707</v>
       </c>
       <c r="F61">
-        <v>0.0118918</v>
+        <v>0.0117317</v>
       </c>
       <c r="G61">
-        <v>0.004169</v>
+        <v>0.004124175000000001</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2006,19 +2006,19 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>0.0003727</v>
+        <v>0.0003373</v>
       </c>
       <c r="D62">
-        <v>0.0010814</v>
+        <v>0.0010638</v>
       </c>
       <c r="E62">
-        <v>0.0037327</v>
+        <v>0.0037087</v>
       </c>
       <c r="F62">
-        <v>0.0182371</v>
+        <v>0.0178663</v>
       </c>
       <c r="G62">
-        <v>0.005855974999999999</v>
+        <v>0.005744025000000001</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2029,19 +2029,19 @@
         <v>68</v>
       </c>
       <c r="C63">
-        <v>0.0003768</v>
+        <v>0.0003557</v>
       </c>
       <c r="D63">
-        <v>0.0009771000000000001</v>
+        <v>0.0009733000000000001</v>
       </c>
       <c r="E63">
-        <v>0.0036042</v>
+        <v>0.0036327</v>
       </c>
       <c r="F63">
-        <v>0.01788</v>
+        <v>0.0176529</v>
       </c>
       <c r="G63">
-        <v>0.005709525</v>
+        <v>0.00565365</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2052,19 +2052,19 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>0.0004338</v>
+        <v>0.0004158</v>
       </c>
       <c r="D64">
-        <v>0.0010339</v>
+        <v>0.0009920999999999999</v>
       </c>
       <c r="E64">
-        <v>0.0028479</v>
+        <v>0.0027417</v>
       </c>
       <c r="F64">
-        <v>0.0109157</v>
+        <v>0.0106456</v>
       </c>
       <c r="G64">
-        <v>0.003807825</v>
+        <v>0.0036988</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2075,19 +2075,19 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>0.0003991000000000001</v>
+        <v>0.0003821</v>
       </c>
       <c r="D65">
-        <v>0.0011339</v>
+        <v>0.0010941</v>
       </c>
       <c r="E65">
-        <v>0.0048358</v>
+        <v>0.0037259</v>
       </c>
       <c r="F65">
-        <v>0.0185273</v>
+        <v>0.0180604</v>
       </c>
       <c r="G65">
-        <v>0.006224025</v>
+        <v>0.005815625</v>
       </c>
     </row>
   </sheetData>
